--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siting/Documents/snn_toolbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0398D-FDAA-E840-99E0-E692B53DD286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4001980-7736-1040-BFBB-543B6E3F75BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17020" xr2:uid="{2AE9393A-B539-1E40-B8A5-DDC826C5BC34}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17000" activeTab="2" xr2:uid="{2AE9393A-B539-1E40-B8A5-DDC826C5BC34}"/>
   </bookViews>
   <sheets>
-    <sheet name="synpase resolution" sheetId="1" r:id="rId1"/>
+    <sheet name="decimal place" sheetId="1" r:id="rId1"/>
     <sheet name="input rate" sheetId="2" r:id="rId2"/>
+    <sheet name="ini" sheetId="4" r:id="rId3"/>
+    <sheet name="brian2" sheetId="3" r:id="rId4"/>
+    <sheet name="by value" sheetId="5" r:id="rId5"/>
+    <sheet name="timing" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +37,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+  <si>
+    <t>2 bits</t>
+  </si>
+  <si>
+    <t>4 bits</t>
+  </si>
+  <si>
+    <t>6 bits</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>2bits</t>
+  </si>
+  <si>
+    <t>4bits</t>
+  </si>
+  <si>
+    <t>6bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8bits </t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>ann accuracy</t>
+  </si>
+  <si>
+    <t>8bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brian2 </t>
+  </si>
+  <si>
+    <t>time taken:</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>(5 samples, including training)</t>
+  </si>
+  <si>
+    <t>input rate</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,8 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +156,5356 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'decimal place'!$AM$17:$AM$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'decimal place'!$AN$17:$AN$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>98.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8DD-844B-B4D9-01243D11B265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1892637791"/>
+        <c:axId val="1892641759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1892637791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892641759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1892641759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892637791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs Input Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'input rate'!$AD$86:$AD$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'input rate'!$AE$86:$AE$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09B1-4946-994A-158E3472E815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284969488"/>
+        <c:axId val="284971120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="284969488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Input Rate (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284971120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="284971120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284969488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> across bit resolution and digits</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ini!$C$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ini!$B$141:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ini!$C$141:$C$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B3B-3B4C-B893-CF604B6B742C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ini!$D$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ini!$B$141:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ini!$D$141:$D$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B3B-3B4C-B893-CF604B6B742C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ini!$E$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ini!$B$141:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ini!$E$141:$E$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B3B-3B4C-B893-CF604B6B742C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ini!$F$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ini!$B$141:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ini!$F$141:$F$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B3B-3B4C-B893-CF604B6B742C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2006673263"/>
+        <c:axId val="2006695375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2006673263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006695375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2006695375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006673263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ann</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> accuracy across digits</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'by value'!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'by value'!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FA3-1C40-B107-5F7852E8903F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="193853664"/>
+        <c:axId val="193985104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="193853664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193985104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193985104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="105"/>
+          <c:min val="75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193853664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>snn accuracy across digits and bit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> resolutions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4bits</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'by value'!$H$23:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'by value'!$I$23:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-132A-FA4E-A298-E4477CDB1EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6bits</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'by value'!$H$23:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'by value'!$J$23:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-132A-FA4E-A298-E4477CDB1EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8bits</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'by value'!$H$23:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'by value'!$K$23:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-132A-FA4E-A298-E4477CDB1EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="303000176"/>
+        <c:axId val="193503056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="303000176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193503056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193503056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303000176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,6 +6390,42 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9842FFFB-8298-4148-B9B2-BFD7005A69D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1236,16 +6697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>688805</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>810920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>193368</xdr:rowOff>
+      <xdr:rowOff>46829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>807337</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>99068</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>149824</xdr:rowOff>
+      <xdr:rowOff>3285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,8 +6729,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38379128" y="2036916"/>
-          <a:ext cx="5854015" cy="5487102"/>
+          <a:off x="46482074" y="1805291"/>
+          <a:ext cx="5931225" cy="5231840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,16 +6741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>638004</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>108701</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>760119</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>786170</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>18162</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>77901</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>67008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1312,8 +6773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38328327" y="8302249"/>
-          <a:ext cx="5883649" cy="5644945"/>
+          <a:off x="46431273" y="7777547"/>
+          <a:ext cx="5960859" cy="5380230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,16 +6873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>655515</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>79131</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>160694</xdr:rowOff>
+      <xdr:rowOff>14155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1444,8 +6905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45796200" y="1854200"/>
-          <a:ext cx="6121400" cy="5621694"/>
+          <a:off x="52969746" y="1637323"/>
+          <a:ext cx="6066693" cy="5410678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,16 +6917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>757115</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>15631</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>86945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,8 +6949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45897800" y="8458200"/>
-          <a:ext cx="5956300" cy="5600700"/>
+          <a:off x="53071346" y="7991230"/>
+          <a:ext cx="5901593" cy="5381869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1672,6 +7133,1661 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>244231</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>578339</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>105508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7127C5-E962-574C-B135-A491AE8719B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39272308" y="7790962"/>
+          <a:ext cx="6146800" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>458610</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>757116</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB17E130-1B7B-7E4E-A4D3-0D6126FCC42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39486687" y="1934698"/>
+          <a:ext cx="6111198" cy="5500078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E975FE3-5DA7-F84F-A7C9-359F2AAA6AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77141</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3215C630-2E89-0843-A0C7-E715BE1E6F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="338666" y="304800"/>
+          <a:ext cx="5546608" cy="5215467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF01FA8-F7E1-0744-B6C4-645FBC3B9044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6603999" y="237066"/>
+          <a:ext cx="5672667" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>702406</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>711199</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5273618D-ECB7-504F-B40E-29EEBE53C8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18956539" y="372533"/>
+          <a:ext cx="5816927" cy="5300134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721BDD9C-BB21-AA4C-B4B2-A87293B12972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12784667" y="355599"/>
+          <a:ext cx="5537200" cy="5055705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4360DB3B-A7A5-B54E-9034-9D409EC70DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474133" y="6214533"/>
+          <a:ext cx="5096934" cy="4792639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>649380</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36B173B-6108-B349-8DBE-D60E34C72737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423334" y="11565467"/>
+          <a:ext cx="5204446" cy="4893733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529770</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660AFFBE-2C54-6E4B-9103-AA9B3A622A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="321733" y="16933334"/>
+          <a:ext cx="5186437" cy="4876799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321734</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547780</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC762D9-A3F2-6E4A-968E-B9DDCE79EEE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="321734" y="22182667"/>
+          <a:ext cx="5204446" cy="4893733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541866</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>199446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAAB8CC-1C1E-784C-81B2-00F9428EDBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7078133" y="6282267"/>
+          <a:ext cx="5080000" cy="4686779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812801</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D538E398-4419-D84A-AAF1-48D4A4257C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6620934" y="11413067"/>
+          <a:ext cx="5452533" cy="4978400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525202</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ABE24E-D26E-7E47-912F-24E12A01368B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6485466" y="16984133"/>
+          <a:ext cx="4826269" cy="4538134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694268</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>728134</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>157959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34B55A-F445-4F45-B919-13CFED054ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502401" y="22064133"/>
+          <a:ext cx="5012266" cy="4713026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>79107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7364E6A-F18E-324E-991D-BC2B4536F442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12903200" y="6163734"/>
+          <a:ext cx="5198533" cy="4888173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>144818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B58F28-D7E3-6840-A9EA-B0B14B54C727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12733867" y="11480800"/>
+          <a:ext cx="5232400" cy="4920018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F071B0-A259-9742-BE18-2EE41B85A371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12598400" y="16984133"/>
+          <a:ext cx="5232400" cy="4920018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>711199</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>202643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC681560-130A-E049-8E7F-FFE8C62CCDEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12327466" y="22267334"/>
+          <a:ext cx="5232401" cy="4757709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>626533</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>120808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F81793E-2170-8440-AA86-364A513B2B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18880666" y="6062133"/>
+          <a:ext cx="5350934" cy="5031475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>42700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210239DC-34BE-B247-8BA3-8A772F0C85FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18711334" y="11413066"/>
+          <a:ext cx="5350933" cy="4885634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>728134</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>78856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDE4A11-32D8-A841-B54C-9A3EA342F7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18474266" y="16865601"/>
+          <a:ext cx="5486401" cy="5158855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>138747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBD5CDE-E902-9340-852C-D3F7F962C9C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18863733" y="22402799"/>
+          <a:ext cx="4961467" cy="4558348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4D4C6A-9F15-2949-8A7B-20E2C40DA23E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7364FEE-173F-4647-8597-09796AE59D7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292588" y="1008505"/>
+          <a:ext cx="4895826" cy="4486431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163631</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>755895</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>61864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65745D45-34F8-5F48-B5BC-CF558AF7DD93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="163631" y="5922819"/>
+          <a:ext cx="4756198" cy="4548881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615873</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>201118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>588781</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D3DFE1-805A-CF41-BDA8-4D741E8AD819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5612594" y="1033905"/>
+          <a:ext cx="4969630" cy="4633721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>626880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>35002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE32AC2-6892-8145-8C19-A08BAB7D5B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5623601" y="5797029"/>
+          <a:ext cx="4869722" cy="4647809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>545600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>118880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D979767C-7A18-E341-93D1-6E4714DCFB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16368551" y="838408"/>
+          <a:ext cx="5402788" cy="5034821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99124</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>614180</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A62A6D-1FEF-0E4B-8C2D-25CAFBE593BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16754862" y="6068726"/>
+          <a:ext cx="4678990" cy="4475316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>207780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>309380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>207598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CD6933-D1A1-E148-8757-FAF0C4302053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11034010" y="1072005"/>
+          <a:ext cx="5098321" cy="4756904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239314</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>169680</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6146DDA8-69B7-D942-BD72-E0613EBA07F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11065544" y="6068725"/>
+          <a:ext cx="4927087" cy="4429358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130370</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326918</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176DE736-A730-4B4E-B196-7DD20BD0CAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130370" y="10924379"/>
+          <a:ext cx="5193269" cy="1610370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>735133</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>765371</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876AB942-0611-3645-8CBF-842231C9A513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5731854" y="10966268"/>
+          <a:ext cx="5026960" cy="1569788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342037</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372276</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>89609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C23A372-D2F3-1E4D-9819-CBE2436EC505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11168267" y="11011624"/>
+          <a:ext cx="5026960" cy="1569788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>795609</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>704895</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3695A62-2586-7B4C-887B-E498A401A617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16618560" y="11056981"/>
+          <a:ext cx="4906007" cy="1533926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69182B53-B01C-984E-A22E-027987C0B388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAB3A76-A31E-7343-B1AE-53D5AE7C268E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1974,10 +9090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376EE4AA-391D-6742-9303-8C533E630D07}">
-  <dimension ref="C4:Z4"/>
+  <dimension ref="C4:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView topLeftCell="Z7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1994,6 +9110,38 @@
       </c>
       <c r="Z4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="39:40" x14ac:dyDescent="0.2">
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>98.33</v>
+      </c>
+    </row>
+    <row r="18" spans="39:40" x14ac:dyDescent="0.2">
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="39:40" x14ac:dyDescent="0.2">
+      <c r="AM19">
+        <v>4</v>
+      </c>
+      <c r="AN19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="39:40" x14ac:dyDescent="0.2">
+      <c r="AM20">
+        <v>8</v>
+      </c>
+      <c r="AN20">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2004,15 +9152,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40136CB-2C0E-B64B-B83D-DC94621E2211}">
-  <dimension ref="B5:BD5"/>
+  <dimension ref="B5:BM90"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="Z74" sqref="Z74"/>
+    <sheetView topLeftCell="T68" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AB108" sqref="AB108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -2031,15 +9179,1010 @@
       <c r="AN5">
         <v>1000</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
+        <v>3000</v>
+      </c>
+      <c r="BE5">
         <v>5000</v>
       </c>
-      <c r="BD5">
+      <c r="BM5">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD85" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD87">
+        <v>1000</v>
+      </c>
+      <c r="AE87">
+        <v>45.67</v>
+      </c>
+    </row>
+    <row r="88" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD88">
+        <v>3000</v>
+      </c>
+      <c r="AE88">
+        <v>84.33</v>
+      </c>
+    </row>
+    <row r="89" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD89">
+        <v>5000</v>
+      </c>
+      <c r="AE89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD90">
+        <v>10000</v>
+      </c>
+      <c r="AE90">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4841E4FD-8372-E249-96FB-CDE513DBD574}">
+  <dimension ref="B140:F150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="N156" sqref="N156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141" s="2">
+        <v>100</v>
+      </c>
+      <c r="E141" s="2">
+        <v>100</v>
+      </c>
+      <c r="F141" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>79.31</v>
+      </c>
+      <c r="D142" s="2">
+        <v>100</v>
+      </c>
+      <c r="E142" s="2">
+        <v>100</v>
+      </c>
+      <c r="F142" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>81.33</v>
+      </c>
+      <c r="D143" s="2">
+        <v>96.16</v>
+      </c>
+      <c r="E143" s="2">
+        <v>100</v>
+      </c>
+      <c r="F143" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>63.95</v>
+      </c>
+      <c r="D144" s="2">
+        <v>100</v>
+      </c>
+      <c r="E144" s="2">
+        <v>100</v>
+      </c>
+      <c r="F144" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="D145" s="2">
+        <v>100</v>
+      </c>
+      <c r="E145" s="2">
+        <v>100</v>
+      </c>
+      <c r="F145" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>90.64</v>
+      </c>
+      <c r="D146" s="2">
+        <v>100</v>
+      </c>
+      <c r="E146" s="2">
+        <v>100</v>
+      </c>
+      <c r="F146" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>89.13</v>
+      </c>
+      <c r="D147" s="2">
+        <v>97.82</v>
+      </c>
+      <c r="E147" s="2">
+        <v>97.82</v>
+      </c>
+      <c r="F147" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>81.94</v>
+      </c>
+      <c r="D148" s="2">
+        <v>100</v>
+      </c>
+      <c r="E148" s="2">
+        <v>100</v>
+      </c>
+      <c r="F148" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>39.03</v>
+      </c>
+      <c r="D149" s="2">
+        <v>100</v>
+      </c>
+      <c r="E149" s="2">
+        <v>100</v>
+      </c>
+      <c r="F149" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>77.64</v>
+      </c>
+      <c r="D150" s="2">
+        <v>99.31</v>
+      </c>
+      <c r="E150" s="2">
+        <v>95.89</v>
+      </c>
+      <c r="F150" s="2">
+        <v>96.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB29D54-C3F6-4846-B0AE-A7A60AC424D8}">
+  <dimension ref="B3:U3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="37" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37894D3-0EFB-BB48-97CC-65D59353DE85}">
+  <dimension ref="A1:K69"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>86.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>94.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>100</v>
+      </c>
+      <c r="J23" s="2">
+        <v>100</v>
+      </c>
+      <c r="K23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>100</v>
+      </c>
+      <c r="K24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>86.21</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>83.81</v>
+      </c>
+      <c r="J25" s="2">
+        <v>96.75</v>
+      </c>
+      <c r="K25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>86.68</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>82.05</v>
+      </c>
+      <c r="J26" s="2">
+        <v>86.68</v>
+      </c>
+      <c r="K26" s="2">
+        <v>86.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>86.68</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>92.25</v>
+      </c>
+      <c r="J27" s="2">
+        <v>94.29</v>
+      </c>
+      <c r="K27" s="2">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2">
+        <v>100</v>
+      </c>
+      <c r="K28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>98.52</v>
+      </c>
+      <c r="J29" s="2">
+        <v>98.99</v>
+      </c>
+      <c r="K29" s="2">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" s="2">
+        <v>100</v>
+      </c>
+      <c r="K30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31" s="2">
+        <v>88.93</v>
+      </c>
+      <c r="J31" s="2">
+        <v>96.11</v>
+      </c>
+      <c r="K31" s="2">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>94.29</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>98.68</v>
+      </c>
+      <c r="J32" s="2">
+        <v>98.68</v>
+      </c>
+      <c r="K32" s="2">
+        <v>94.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>98.52</v>
+      </c>
+      <c r="D46" s="1">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>88.93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>96.11</v>
+      </c>
+      <c r="D61">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>98.68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>94.85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>94.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178AEE69-749B-1F4D-9FBC-BEDD4D07BC13}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>7.33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>7.43</v>
+      </c>
+      <c r="F3">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>7.01</v>
+      </c>
+      <c r="F4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>7.4</v>
+      </c>
+      <c r="F5">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>7.33</v>
+      </c>
+      <c r="F6">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B7)</f>
+        <v>7.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F7)</f>
+        <v>7.1840000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>47.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>